--- a/matrix/analysis/conjunct-multiseed/multiseed-ab010-c100.xlsx
+++ b/matrix/analysis/conjunct-multiseed/multiseed-ab010-c100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/src/repos/Cloud-BDD/matrix/analysis/conjunct-multiseed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369D6F46-5E75-A744-9116-96802AFD7E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CC23A-5068-2A46-8EB4-4ADF7824220F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="57">
   <si>
     <t>ab</t>
   </si>
@@ -312,6 +312,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Combined </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sizes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4493,6 +4526,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Combined Size Ratios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11243,6 +11301,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Combined</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Size Ratios: Dominated's Removed</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11449,7 +11537,7 @@
                   <c:v>5.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.89</c:v>
@@ -11566,7 +11654,7 @@
                   <c:v>5.03</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.92</c:v>
@@ -13506,7 +13594,7 @@
                   <c:v>110.86</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.72</c:v>
@@ -13625,7 +13713,7 @@
                   <c:v>110.86</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.72</c:v>
@@ -21437,8 +21525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Z5" sqref="A5:Z37"/>
+    <sheetView topLeftCell="A45" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25297,8 +25385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28763,8 +28851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA31ABB-7B82-FD48-9479-8CEA4DFD60C4}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29010,8 +29098,8 @@
       <c r="H7" s="2">
         <v>5.03</v>
       </c>
-      <c r="I7" s="2">
-        <v>2048</v>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J7" s="2">
         <v>3.89</v>
@@ -29093,8 +29181,8 @@
       <c r="H8" s="2">
         <v>5.03</v>
       </c>
-      <c r="I8" s="2">
-        <v>2048</v>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J8" s="2">
         <v>3.92</v>
@@ -30457,8 +30545,8 @@
       <c r="T24" s="2">
         <v>110.86</v>
       </c>
-      <c r="U24" s="2">
-        <v>2048</v>
+      <c r="U24" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="V24" s="2">
         <v>2.72</v>
@@ -30540,8 +30628,8 @@
       <c r="T25" s="2">
         <v>110.86</v>
       </c>
-      <c r="U25" s="2">
-        <v>2048</v>
+      <c r="U25" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="V25" s="2">
         <v>2.72</v>
@@ -30739,7 +30827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
